--- a/Database Code/db_example.xlsx
+++ b/Database Code/db_example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14220" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="password" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>emp_id</t>
   </si>
@@ -75,6 +75,27 @@
   </si>
   <si>
     <t>"helloworld"</t>
+  </si>
+  <si>
+    <t>type_id</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>coding</t>
+  </si>
+  <si>
+    <t>management</t>
+  </si>
+  <si>
+    <t>algorithms</t>
+  </si>
+  <si>
+    <t>ui/ux</t>
   </si>
 </sst>
 </file>
@@ -475,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -532,7 +553,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -543,15 +563,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F7"/>
+  <dimension ref="B1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:11">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -565,52 +588,140 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:6">
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
       <c r="B3">
         <v>1001</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:6">
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
       <c r="B4">
         <v>1002</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="D4">
+        <v>102</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5">
         <v>1003</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="D5">
+        <v>101</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
       <c r="B6">
         <v>1004</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="D6">
+        <v>99</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7">
         <v>1005</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
+      <c r="D7">
+        <v>108</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Database Code/db_example.xlsx
+++ b/Database Code/db_example.xlsx
@@ -497,7 +497,7 @@
   <dimension ref="B1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -566,7 +566,7 @@
   <dimension ref="B1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Database Code/db_example.xlsx
+++ b/Database Code/db_example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14220" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14220" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="password" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>emp_id</t>
   </si>
@@ -96,6 +96,21 @@
   </si>
   <si>
     <t>ui/ux</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>Thrs</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
   </si>
 </sst>
 </file>
@@ -150,21 +165,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -565,7 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -732,10 +768,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D1"/>
+  <dimension ref="B1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -743,7 +779,7 @@
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="2:11">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -753,9 +789,245 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="B2">
+        <v>1001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>42467</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3">
+        <v>1002</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42467</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4">
+        <v>1003</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42467</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5">
+        <v>1004</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42467</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6">
+        <v>1005</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42467</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7">
+        <v>1001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>42468</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8">
+        <v>1002</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42468</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9">
+        <v>1003</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42468</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10">
+        <v>1004</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42468</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11">
+        <v>1005</v>
+      </c>
+      <c r="C11" s="1">
+        <v>42468</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12">
+        <v>1001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>42471</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13">
+        <v>1002</v>
+      </c>
+      <c r="C13" s="1">
+        <v>42471</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14">
+        <v>1003</v>
+      </c>
+      <c r="C14" s="1">
+        <v>42471</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15">
+        <v>1004</v>
+      </c>
+      <c r="C15" s="1">
+        <v>42471</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16">
+        <v>1005</v>
+      </c>
+      <c r="C16" s="1">
+        <v>42471</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17">
+        <v>1001</v>
+      </c>
+      <c r="C17" s="1">
+        <v>42472</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18">
+        <v>1002</v>
+      </c>
+      <c r="C18" s="1">
+        <v>42472</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19">
+        <v>1003</v>
+      </c>
+      <c r="C19" s="1">
+        <v>42472</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20">
+        <v>1004</v>
+      </c>
+      <c r="C20" s="1">
+        <v>42472</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21">
+        <v>1005</v>
+      </c>
+      <c r="C21" s="1">
+        <v>42472</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Database Code/db_example.xlsx
+++ b/Database Code/db_example.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>emp_id</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thrsday</t>
+  </si>
+  <si>
+    <t>Friday</t>
   </si>
 </sst>
 </file>
@@ -148,12 +157,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3366FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -165,7 +204,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -181,12 +220,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -194,6 +273,22 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -201,6 +296,22 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -768,10 +879,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K21"/>
+  <dimension ref="B1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -794,7 +905,7 @@
       </c>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1001</v>
       </c>
       <c r="C2" s="1">
@@ -808,7 +919,7 @@
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1002</v>
       </c>
       <c r="C3" s="1">
@@ -819,7 +930,7 @@
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1003</v>
       </c>
       <c r="C4" s="1">
@@ -830,7 +941,7 @@
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1004</v>
       </c>
       <c r="C5" s="1">
@@ -841,7 +952,7 @@
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6">
+      <c r="B6" s="2">
         <v>1005</v>
       </c>
       <c r="C6" s="1">
@@ -852,7 +963,7 @@
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7">
+      <c r="B7" s="4">
         <v>1001</v>
       </c>
       <c r="C7" s="1">
@@ -866,7 +977,7 @@
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8">
+      <c r="B8" s="4">
         <v>1002</v>
       </c>
       <c r="C8" s="1">
@@ -877,7 +988,7 @@
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9">
+      <c r="B9" s="4">
         <v>1003</v>
       </c>
       <c r="C9" s="1">
@@ -888,7 +999,7 @@
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10">
+      <c r="B10" s="4">
         <v>1004</v>
       </c>
       <c r="C10" s="1">
@@ -899,7 +1010,7 @@
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11">
+      <c r="B11" s="4">
         <v>1005</v>
       </c>
       <c r="C11" s="1">
@@ -910,7 +1021,7 @@
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12">
+      <c r="B12" s="2">
         <v>1001</v>
       </c>
       <c r="C12" s="1">
@@ -924,7 +1035,7 @@
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13">
+      <c r="B13" s="2">
         <v>1002</v>
       </c>
       <c r="C13" s="1">
@@ -935,7 +1046,7 @@
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14">
+      <c r="B14" s="2">
         <v>1003</v>
       </c>
       <c r="C14" s="1">
@@ -946,7 +1057,7 @@
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15">
+      <c r="B15" s="2">
         <v>1004</v>
       </c>
       <c r="C15" s="1">
@@ -957,7 +1068,7 @@
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16">
+      <c r="B16" s="2">
         <v>1005</v>
       </c>
       <c r="C16" s="1">
@@ -968,7 +1079,7 @@
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17">
+      <c r="B17" s="4">
         <v>1001</v>
       </c>
       <c r="C17" s="1">
@@ -982,7 +1093,7 @@
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18">
+      <c r="B18" s="4">
         <v>1002</v>
       </c>
       <c r="C18" s="1">
@@ -993,7 +1104,7 @@
       </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19">
+      <c r="B19" s="4">
         <v>1003</v>
       </c>
       <c r="C19" s="1">
@@ -1004,7 +1115,7 @@
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20">
+      <c r="B20" s="4">
         <v>1004</v>
       </c>
       <c r="C20" s="1">
@@ -1015,7 +1126,7 @@
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21">
+      <c r="B21" s="4">
         <v>1005</v>
       </c>
       <c r="C21" s="1">
@@ -1023,6 +1134,586 @@
       </c>
       <c r="D21">
         <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" s="2" customFormat="1">
+      <c r="B22" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C22" s="7">
+        <v>42473</v>
+      </c>
+      <c r="D22" s="2">
+        <v>8</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="2">
+        <v>1002</v>
+      </c>
+      <c r="C23" s="1">
+        <v>42473</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="2">
+        <v>1003</v>
+      </c>
+      <c r="C24" s="1">
+        <v>42473</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="2">
+        <v>1004</v>
+      </c>
+      <c r="C25" s="1">
+        <v>42473</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="2">
+        <v>1005</v>
+      </c>
+      <c r="C26" s="1">
+        <v>42473</v>
+      </c>
+      <c r="D26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" s="6" customFormat="1">
+      <c r="B27" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C27" s="8">
+        <v>42474</v>
+      </c>
+      <c r="D27" s="6">
+        <v>12</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="6">
+        <v>1002</v>
+      </c>
+      <c r="C28" s="1">
+        <v>42474</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="6">
+        <v>1003</v>
+      </c>
+      <c r="C29" s="1">
+        <v>42474</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="6">
+        <v>1004</v>
+      </c>
+      <c r="C30" s="1">
+        <v>42474</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="6">
+        <v>1005</v>
+      </c>
+      <c r="C31" s="1">
+        <v>42474</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" s="2" customFormat="1">
+      <c r="B32" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C32" s="7">
+        <v>42475</v>
+      </c>
+      <c r="D32" s="2">
+        <v>11</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="2">
+        <v>1002</v>
+      </c>
+      <c r="C33" s="1">
+        <v>42475</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="2">
+        <v>1003</v>
+      </c>
+      <c r="C34" s="1">
+        <v>42475</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="2">
+        <v>1004</v>
+      </c>
+      <c r="C35" s="1">
+        <v>42475</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="2">
+        <v>1005</v>
+      </c>
+      <c r="C36" s="1">
+        <v>42475</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" s="6" customFormat="1">
+      <c r="B37" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C37" s="8">
+        <v>42478</v>
+      </c>
+      <c r="D37" s="6">
+        <v>6</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C38" s="1">
+        <v>42478</v>
+      </c>
+      <c r="D38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C39" s="1">
+        <v>42478</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C40" s="1">
+        <v>42478</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C41" s="1">
+        <v>42478</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" s="2" customFormat="1">
+      <c r="B42" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C42" s="7">
+        <v>42479</v>
+      </c>
+      <c r="D42" s="2">
+        <v>11</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="2">
+        <v>1002</v>
+      </c>
+      <c r="C43" s="1">
+        <v>42479</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="2">
+        <v>1003</v>
+      </c>
+      <c r="C44" s="1">
+        <v>42479</v>
+      </c>
+      <c r="D44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="2">
+        <v>1004</v>
+      </c>
+      <c r="C45" s="1">
+        <v>42479</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="2">
+        <v>1005</v>
+      </c>
+      <c r="C46" s="1">
+        <v>42479</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" s="6" customFormat="1">
+      <c r="B47" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C47" s="8">
+        <v>42480</v>
+      </c>
+      <c r="D47" s="6">
+        <v>8</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="5">
+        <v>1002</v>
+      </c>
+      <c r="C48" s="1">
+        <v>42480</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="5">
+        <v>1003</v>
+      </c>
+      <c r="C49" s="1">
+        <v>42480</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="5">
+        <v>1004</v>
+      </c>
+      <c r="C50" s="1">
+        <v>42480</v>
+      </c>
+      <c r="D50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="5">
+        <v>1005</v>
+      </c>
+      <c r="C51" s="1">
+        <v>42480</v>
+      </c>
+      <c r="D51">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" s="2" customFormat="1">
+      <c r="B52" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C52" s="7">
+        <v>42481</v>
+      </c>
+      <c r="D52" s="2">
+        <v>10</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="2">
+        <v>1002</v>
+      </c>
+      <c r="C53" s="1">
+        <v>42481</v>
+      </c>
+      <c r="D53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="2">
+        <v>1003</v>
+      </c>
+      <c r="C54" s="1">
+        <v>42481</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="2">
+        <v>1004</v>
+      </c>
+      <c r="C55" s="1">
+        <v>42481</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="2">
+        <v>1005</v>
+      </c>
+      <c r="C56" s="1">
+        <v>42481</v>
+      </c>
+      <c r="D56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" s="5" customFormat="1">
+      <c r="B57" s="5">
+        <v>1001</v>
+      </c>
+      <c r="C57" s="9">
+        <v>42482</v>
+      </c>
+      <c r="D57" s="5">
+        <v>8</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C58" s="1">
+        <v>42482</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C59" s="1">
+        <v>42482</v>
+      </c>
+      <c r="D59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60" s="4">
+        <v>1004</v>
+      </c>
+      <c r="C60" s="1">
+        <v>42482</v>
+      </c>
+      <c r="D60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61" s="4">
+        <v>1005</v>
+      </c>
+      <c r="C61" s="1">
+        <v>42482</v>
+      </c>
+      <c r="D61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" s="2" customFormat="1">
+      <c r="B62" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C62" s="7">
+        <v>42485</v>
+      </c>
+      <c r="D62" s="2">
+        <v>9</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63" s="2">
+        <v>1002</v>
+      </c>
+      <c r="C63" s="1">
+        <v>42485</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" s="2">
+        <v>1003</v>
+      </c>
+      <c r="C64" s="1">
+        <v>42485</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11">
+      <c r="B65" s="2">
+        <v>1004</v>
+      </c>
+      <c r="C65" s="1">
+        <v>42485</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11">
+      <c r="B66" s="2">
+        <v>1005</v>
+      </c>
+      <c r="C66" s="1">
+        <v>42485</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" s="6" customFormat="1">
+      <c r="B67" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C67" s="8">
+        <v>42486</v>
+      </c>
+      <c r="D67" s="6">
+        <v>9</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11">
+      <c r="B68" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C68" s="1">
+        <v>42486</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11">
+      <c r="B69" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C69" s="1">
+        <v>42486</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11">
+      <c r="B70" s="4">
+        <v>1004</v>
+      </c>
+      <c r="C70" s="1">
+        <v>42486</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11">
+      <c r="B71" s="4">
+        <v>1005</v>
+      </c>
+      <c r="C71" s="1">
+        <v>42486</v>
+      </c>
+      <c r="D71">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
